--- a/MATLAB_codes/Testing_endogeneity/Results/Excels/usual_suspects_fullpairwise_sorted_Unif_bias_deltax_23-Nov-2023.xlsx
+++ b/MATLAB_codes/Testing_endogeneity/Results/Excels/usual_suspects_fullpairwise_sorted_Unif_bias_deltax_23-Nov-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristof\Desktop\Endogeneity\MATLAB_codes\Testing_endogeneity\Results\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFD5E33D-2217-4128-8E77-618FA252A573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7393ADE1-15A5-411F-8AFF-1D0C296EEA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10575" yWindow="2625" windowWidth="7500" windowHeight="7875" xr2:uid="{44450A73-9B6E-4CB8-B396-B11FE1ED1C5E}"/>
   </bookViews>
